--- a/Inputs/Orange_IPMI/benefits.xlsx
+++ b/Inputs/Orange_IPMI/benefits.xlsx
@@ -26,7 +26,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C24" authorId="0">
+    <comment ref="C25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="91">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiology</t>
   </si>
   <si>
     <t xml:space="preserve">Physiotherapy</t>
@@ -457,9 +460,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -629,6 +633,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -659,10 +667,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -751,13 +755,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
@@ -990,59 +994,60 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="22" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="14" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,135 +1058,135 @@
         <v>49</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="23" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,38 +1197,38 @@
         <v>70</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,95 +1239,106 @@
         <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C45" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>52</v>
+      <c r="B50" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>85</v>
+      <c r="B51" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1364,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1379,7 +1395,7 @@
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1522,10 +1538,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>34</v>
@@ -1599,10 +1615,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,10 +1626,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,10 +1637,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>18</v>
@@ -1643,10 +1659,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,10 +1678,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,10 +1689,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,10 +1719,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,10 +1741,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,10 +1752,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,10 +1763,10 @@
         <v>13</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,10 +1774,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,10 +1785,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,10 +1796,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,10 +1815,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,10 +1837,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,10 +1848,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,10 +1859,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,10 +1870,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,10 +1881,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,10 +1903,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,10 +1914,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,10 +1925,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
